--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1039,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1074,28 +1086,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1132,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1357,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1392,28 +1404,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1450,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2241,10 +2253,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2288,28 +2300,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2334,28 +2346,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2530,10 +2542,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2577,28 +2589,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2623,28 +2635,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2819,10 +2831,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2866,28 +2878,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2912,28 +2924,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3079,10 +3091,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3126,28 +3138,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3172,28 +3184,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3397,10 +3409,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3444,28 +3456,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3490,28 +3502,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4062,10 +4074,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4109,28 +4121,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4155,28 +4167,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4380,10 +4392,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4427,28 +4439,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4473,28 +4485,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4669,10 +4681,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4716,28 +4728,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4762,28 +4774,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4987,10 +4999,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5034,28 +5046,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5080,28 +5092,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5276,10 +5288,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5323,28 +5335,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5369,28 +5381,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -576,10 +624,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -623,28 +671,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -669,28 +717,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1039,10 +1087,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1086,28 +1134,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1132,28 +1180,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1357,10 +1405,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1404,28 +1452,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1450,28 +1498,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1646,10 +1694,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1693,28 +1741,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="4">
+      <c r="A54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1739,28 +1787,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="4">
+      <c r="C56" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="4">
+      <c r="D56" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="4">
+      <c r="I56" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1935,10 +1983,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1982,28 +2030,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="A64" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="4">
+      <c r="C64" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="4">
+      <c r="D64" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2028,28 +2076,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="4">
+      <c r="I66" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2253,10 +2301,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2300,28 +2348,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="A75" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2346,28 +2394,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="4">
+      <c r="C77" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="4">
+      <c r="D77" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="4">
+      <c r="I77" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2542,10 +2590,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2589,28 +2637,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="4">
+      <c r="A85" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2635,28 +2683,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="4">
+      <c r="C87" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="4">
+      <c r="D87" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="4">
+      <c r="I87" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2831,10 +2879,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2878,28 +2926,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
+      <c r="C95" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="4">
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2924,28 +2972,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3091,10 +3139,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3138,28 +3186,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3184,28 +3232,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="4">
+      <c r="D106" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="4">
+      <c r="I106" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3409,10 +3457,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="J113" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3456,28 +3504,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3502,28 +3550,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3756,10 +3804,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="4" t="s">
+      <c r="J125" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3803,28 +3851,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3849,28 +3897,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="4">
+      <c r="I129" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4074,10 +4122,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4121,28 +4169,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4167,28 +4215,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4392,10 +4440,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4439,28 +4487,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4485,28 +4533,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4681,10 +4729,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
+      <c r="J157" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4728,28 +4776,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
+      <c r="C159" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="4">
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4774,28 +4822,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4999,10 +5047,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
+      <c r="J168" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5046,28 +5094,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5092,28 +5140,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5288,10 +5336,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J178" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="4" t="s">
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5335,28 +5383,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5381,28 +5429,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5519,10 +5567,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="J186" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -624,10 +642,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -671,28 +689,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -717,28 +735,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1087,10 +1105,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1134,28 +1152,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1180,28 +1198,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1405,10 +1423,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1452,28 +1470,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1498,28 +1516,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1694,10 +1712,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1741,28 +1759,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="12">
+      <c r="A54" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1787,28 +1805,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="12">
+      <c r="C56" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="12">
+      <c r="D56" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="12">
+      <c r="I56" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2001,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2030,28 +2048,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="12">
+      <c r="A64" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="12">
+      <c r="C64" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="12">
+      <c r="D64" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2094,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="12">
+      <c r="D66" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="12">
+      <c r="I66" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2301,10 +2319,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="12" t="s">
+      <c r="K73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2348,28 +2366,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="12">
+      <c r="A75" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2394,28 +2412,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="12">
+      <c r="C77" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="12">
+      <c r="D77" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="12">
+      <c r="I77" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2590,10 +2608,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="12" t="s">
+      <c r="K83" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2637,28 +2655,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="12">
+      <c r="A85" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2683,28 +2701,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="12">
+      <c r="C87" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="12">
+      <c r="D87" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="12">
+      <c r="I87" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2879,10 +2897,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="12" t="s">
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2926,28 +2944,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
+      <c r="C95" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="12">
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2972,28 +2990,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3139,10 +3157,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="12" t="s">
+      <c r="K102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3186,28 +3204,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="12">
+      <c r="A104" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3232,28 +3250,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="D106" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="12">
+      <c r="I106" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3457,10 +3475,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="12" t="s">
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3504,28 +3522,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3550,28 +3568,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3804,10 +3822,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="12" t="s">
+      <c r="J125" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="12" t="s">
+      <c r="K125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3851,28 +3869,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="12">
+      <c r="A127" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3897,28 +3915,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="12">
+      <c r="I129" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4122,10 +4140,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
+      <c r="J136" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="12" t="s">
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4169,28 +4187,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4215,28 +4233,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4440,10 +4458,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
+      <c r="J147" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="12" t="s">
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4487,28 +4505,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4533,28 +4551,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4729,10 +4747,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
+      <c r="J157" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="12" t="s">
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4776,28 +4794,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
+      <c r="C159" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="12">
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4822,28 +4840,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5047,10 +5065,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
+      <c r="J168" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="12" t="s">
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5094,28 +5112,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5140,28 +5158,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5336,10 +5354,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
+      <c r="J178" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="12" t="s">
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5383,28 +5401,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5429,28 +5447,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5567,10 +5585,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
+      <c r="J186" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="12" t="s">
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
